--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3037377.145593245</v>
+        <v>3141556.780044316</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8323310.888001709</v>
+        <v>8323310.888001711</v>
       </c>
     </row>
     <row r="11">
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>246.1620375835757</v>
       </c>
       <c r="W2" t="n">
-        <v>251.1439098532705</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933813</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U3" t="n">
         <v>225.7871683969286</v>
@@ -814,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467719</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>15.48335791410085</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>117.0602861317418</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>55.37292366924346</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1066,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>66.62734361856158</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>164.2532214802698</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>308.8109618228771</v>
       </c>
       <c r="X8" t="n">
-        <v>187.8709137327569</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.87124770254907</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>95.02966874231842</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>99.39152647956317</v>
       </c>
       <c r="C13" t="n">
-        <v>135.0949745400657</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1607,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>130.2301075198431</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>74.20064764874475</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2053,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>82.73433514019987</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>158.7974735697944</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.9413471369472</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>86.26216629270428</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>154.0364602909681</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>72.57619040703568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>121.8674042714179</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.0585636675447</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3035,7 +3037,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3083,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>138.5468473585374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3246,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>168.840916548142</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3554,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>16.77337404802883</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.4684961233927</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3740,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>9.146142788180832</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>137.5213979579541</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>146.7151441592111</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.828918917875</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,7 +4306,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067214</v>
+        <v>1986.901740067215</v>
       </c>
       <c r="C2" t="n">
         <v>1617.939223126803</v>
@@ -4313,31 +4315,31 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4349,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2713.136153598409</v>
       </c>
       <c r="W2" t="n">
-        <v>2377.041072043026</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X2" t="n">
-        <v>2377.041072043026</v>
+        <v>1986.901740067215</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067214</v>
+        <v>1986.901740067215</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635991</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686089</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064765</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>827.0643955080144</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>920.7416649986317</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2633.087874474101</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>2633.087874474101</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>2633.087874474101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>2633.087874474101</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>2633.087874474101</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G4" t="n">
-        <v>2617.448119005312</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T4" t="n">
-        <v>3103.839206178698</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U4" t="n">
-        <v>2814.736339304341</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V4" t="n">
-        <v>2814.736339304341</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W4" t="n">
-        <v>2814.736339304341</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X4" t="n">
-        <v>2814.736339304341</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y4" t="n">
-        <v>2814.736339304341</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033366</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D5" t="n">
-        <v>939.4077790033366</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E5" t="n">
-        <v>939.4077790033366</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>754.9746608886195</v>
+        <v>428.615504601943</v>
       </c>
       <c r="C7" t="n">
-        <v>754.9746608886195</v>
+        <v>428.615504601943</v>
       </c>
       <c r="D7" t="n">
-        <v>604.8580214762837</v>
+        <v>428.615504601943</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>280.7024110195499</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>133.8124635216396</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="Y7" t="n">
-        <v>754.9746608886195</v>
+        <v>610.2639694321828</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1215.758282883553</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>846.7957659431409</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>488.5300673363904</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4817,37 +4819,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="X8" t="n">
-        <v>1992.497454923486</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y8" t="n">
-        <v>1602.358122947674</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2787.057062648986</v>
+        <v>478.3278112441809</v>
       </c>
       <c r="C10" t="n">
-        <v>2618.120879721079</v>
+        <v>309.391628316274</v>
       </c>
       <c r="D10" t="n">
-        <v>2618.120879721079</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>2618.120879721079</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>3325.60582160917</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>3133.919937435996</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>3133.919937435996</v>
+        <v>699.120390387711</v>
       </c>
       <c r="U10" t="n">
-        <v>3133.919937435996</v>
+        <v>699.120390387711</v>
       </c>
       <c r="V10" t="n">
-        <v>3133.919937435996</v>
+        <v>699.120390387711</v>
       </c>
       <c r="W10" t="n">
-        <v>2844.502767399036</v>
+        <v>699.120390387711</v>
       </c>
       <c r="X10" t="n">
-        <v>2844.502767399036</v>
+        <v>699.120390387711</v>
       </c>
       <c r="Y10" t="n">
-        <v>2844.502767399036</v>
+        <v>478.3278112441809</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,10 +5059,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5115,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921476</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921476</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898186995</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373306</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703114</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958739</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C16" t="n">
-        <v>633.992644467967</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556313</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732381</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F16" t="n">
-        <v>335.9629114732381</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7668121881181</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304622</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369644</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261136</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,25 +5512,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,25 +5594,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>739.5354516872161</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>642.8692823226941</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>473.9330993947872</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>323.8164599824514</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5701,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2113.492509992416</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W19" t="n">
-        <v>1273.299877194481</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X19" t="n">
-        <v>1045.310326296464</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y19" t="n">
-        <v>824.5177471529338</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5744,49 +5746,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,19 +5825,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239597</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
         <v>1336.913939313768</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.53722908186</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153953</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741617</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159224</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661314</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376194</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218392</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>4221.331149328842</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>4221.331149328842</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3931.913979291881</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3703.924428393864</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912099</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C24" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D24" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>3473.939263755757</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>4025.848993995044</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>4449.472143490112</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>4682.733803864994</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S24" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U24" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V24" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W24" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y24" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="25">
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>950.7540666811333</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
         <v>484.8112968429803</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X25" t="n">
-        <v>1171.546645824663</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.7540666811333</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6251,25 +6253,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3267.933418738895</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
-        <v>3098.997235810989</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
-        <v>2948.880596398653</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W28" t="n">
-        <v>3677.571434467152</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X28" t="n">
-        <v>3449.581883569135</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y28" t="n">
-        <v>3449.581883569135</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6500,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6542,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>615.644930552589</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C31" t="n">
-        <v>615.644930552589</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D31" t="n">
-        <v>465.5282911402533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6695,13 +6697,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>2383.002557118212</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>2716.927329289433</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>3212.252935505192</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>3809.631423131743</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N33" t="n">
-        <v>4437.22938668635</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O33" t="n">
-        <v>4457.571492023711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3233.200736907821</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3064.264553979914</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>2914.147914567578</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>2766.234820985185</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>2619.344873487275</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024105</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866303</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305899</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.33114932884</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673038</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3932.255922673038</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3642.838752636078</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3414.84920173806</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3414.84920173806</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6929,40 +6931,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,10 +6973,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>2715.159942084666</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>3312.538429711217</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>3940.136393265824</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>4492.046123505112</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4492.046123505112</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>632.7243904253733</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>632.7243904253733</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7132,13 +7134,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>814.372855255613</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7193,13 +7195,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438176</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>781.3544215660705</v>
+        <v>3044.370838283061</v>
       </c>
       <c r="C40" t="n">
-        <v>612.4182386381636</v>
+        <v>2875.434655355155</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>2725.318015942819</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>2725.318015942819</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>2578.428068444909</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>4218.903091397696</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>3964.218603191809</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>3674.801433154848</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>3446.811882256831</v>
       </c>
       <c r="Y40" t="n">
-        <v>963.0028863963103</v>
+        <v>3226.019303113301</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
         <v>1948.813509611463</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>2715.159942084666</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>3210.485548300424</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M42" t="n">
-        <v>3807.864035926976</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>3905.661761784424</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>4457.571492023711</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>4457.571492023711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>784.5811134804959</v>
+        <v>2824.769373306003</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>2655.833190378096</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>3999.301626420637</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>3744.61713821475</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>3455.19996817779</v>
       </c>
       <c r="X43" t="n">
-        <v>1005.373692624026</v>
+        <v>3227.210417279773</v>
       </c>
       <c r="Y43" t="n">
-        <v>784.5811134804959</v>
+        <v>3006.417838136243</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
   </sheetData>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>80.44045370237413</v>
       </c>
       <c r="C13" t="n">
-        <v>32.15184655856214</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23434,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>49.60187266209422</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,19 +23661,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>66.09406519747911</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23941,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>134.6711151870884</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>40.64330621514762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>199.9223080965399</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>71.67319509806902</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>73.85777223953349</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>164.3170701178263</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100.7734165143926</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>78.25894333073138</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>26.97729093373147</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25312,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>117.682081788449</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>148.75076424424</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>39.11615722870212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347504</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>88.18825743108309</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>191.8807364711622</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="11">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312478</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287555</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="F2" t="n">
-        <v>706253.2747287552</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287555</v>
       </c>
       <c r="H2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="I2" t="n">
-        <v>706253.2747287556</v>
+        <v>706253.2747287557</v>
       </c>
       <c r="J2" t="n">
-        <v>706253.2747287554</v>
+        <v>706253.2747287551</v>
       </c>
       <c r="K2" t="n">
         <v>706253.2747287555</v>
@@ -26344,16 +26346,16 @@
         <v>706253.2747287555</v>
       </c>
       <c r="M2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="N2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287555</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405266</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040525</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26445,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186742</v>
+        <v>14826.69604186741</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26454,10 +26456,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
     </row>
     <row r="5">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617904</v>
+        <v>-811863.8817617899</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.863965802</v>
+        <v>516880.8639658015</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.8639658022</v>
       </c>
       <c r="E6" t="n">
-        <v>264891.5870556255</v>
+        <v>264891.5870556257</v>
       </c>
       <c r="F6" t="n">
-        <v>590304.0488629808</v>
+        <v>590304.0488629813</v>
       </c>
       <c r="G6" t="n">
-        <v>590304.0488629811</v>
+        <v>590304.0488629809</v>
       </c>
       <c r="H6" t="n">
-        <v>590304.0488629809</v>
+        <v>590304.048862981</v>
       </c>
       <c r="I6" t="n">
         <v>590304.0488629813</v>
       </c>
       <c r="J6" t="n">
-        <v>372772.8464657033</v>
+        <v>372772.8464657032</v>
       </c>
       <c r="K6" t="n">
         <v>590304.048862981</v>
@@ -26552,16 +26554,16 @@
         <v>590304.048862981</v>
       </c>
       <c r="M6" t="n">
-        <v>505249.0209274691</v>
+        <v>505249.0209274693</v>
       </c>
       <c r="N6" t="n">
+        <v>590304.048862981</v>
+      </c>
+      <c r="O6" t="n">
+        <v>590304.0488629808</v>
+      </c>
+      <c r="P6" t="n">
         <v>590304.0488629809</v>
-      </c>
-      <c r="O6" t="n">
-        <v>590304.0488629807</v>
-      </c>
-      <c r="P6" t="n">
-        <v>590304.048862981</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,7 +26807,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>81.59022088655925</v>
       </c>
       <c r="W2" t="n">
-        <v>98.09705886414247</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>107.7439527351654</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>150.5424503449274</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>330.8650149868101</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>99.39846464046664</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>54.33143187182495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>40.43000689453589</v>
       </c>
       <c r="X8" t="n">
-        <v>181.8601869457121</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.9607324793882</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>53.58580427589393</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28059,10 +28061,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28071,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29803,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31835,16 +31837,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>360.3952288121454</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>468.9317632522997</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862122</v>
@@ -31853,7 +31855,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -31862,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>328.9038320421819</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32230,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32312,16 +32314,16 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>289.7537444526272</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,10 +32332,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>558.3759638958057</v>
+        <v>409.0029787211721</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32578,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32783,34 +32785,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>153.8606640989128</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32968,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33026,10 +33028,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L27" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33041,7 +33043,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>490.507583235568</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33278,13 +33280,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>163.1438255932933</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33676,7 +33678,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33740,10 +33742,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33755,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>303.7670002884137</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>242.2322097768141</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33992,7 +33994,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N42" t="n">
-        <v>230.1272937575226</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34442,34 +34444,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35483,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5537898377865</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>330.3773834724255</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,7 +35503,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35960,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,10 +35980,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>416.2419299737874</v>
+        <v>266.8689447991538</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>161.999986601618</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>8.181160134948858</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36676,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L27" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36689,7 +36691,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>351.9532034556938</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36926,13 +36928,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>20.5475811488489</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37324,7 +37326,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37388,10 +37390,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>163.7852262023921</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>103.6778299969399</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37640,7 +37642,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37777,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N42" t="n">
-        <v>98.7855816741893</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3141556.780044316</v>
+        <v>3137544.170030324</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8323310.888001711</v>
+        <v>8323310.888001709</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>147.0290144562276</v>
       </c>
       <c r="V2" t="n">
-        <v>246.1620375835757</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,16 +749,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933813</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>72.0880274467719</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.28185552386362</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>239.1296984349983</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>55.37292366924346</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1056,19 +1056,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>66.62734361856158</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>131.5522128412691</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>218.8748435506846</v>
       </c>
       <c r="W8" t="n">
-        <v>308.8109618228771</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>95.02966874231842</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>203.7029035467948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>99.39152647956317</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>44.7513807668926</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>130.2301075198431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,10 +1776,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>104.1233804225859</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1818,7 +1818,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2052,10 +2052,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T19" t="n">
-        <v>82.73433514019987</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2137,13 +2137,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>5.421623586788709</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>86.26216629270428</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>206.7582264966181</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>42.20606459030849</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>121.8674042714179</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>68.17501931583779</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>14.92158678358342</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.77337404802883</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.146142788180832</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>43.3482415786093</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.901740067215</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810566</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="V2" t="n">
-        <v>2713.136153598409</v>
+        <v>3177.09166559278</v>
       </c>
       <c r="W2" t="n">
-        <v>2360.367498328294</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="X2" t="n">
-        <v>1986.901740067215</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1986.901740067215</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635991</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686089</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064765</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080144</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986317</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181842</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181842</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1619.798686923957</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="C5" t="n">
-        <v>1250.836169983545</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D5" t="n">
-        <v>892.5704713767946</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3119.628073993392</v>
+        <v>2767.792255586147</v>
       </c>
       <c r="V5" t="n">
-        <v>2788.565186649821</v>
+        <v>2436.729368242576</v>
       </c>
       <c r="W5" t="n">
-        <v>2435.796531379707</v>
+        <v>2083.960712972462</v>
       </c>
       <c r="X5" t="n">
-        <v>2062.330773118627</v>
+        <v>1710.494954711382</v>
       </c>
       <c r="Y5" t="n">
-        <v>2006.398526988078</v>
+        <v>1320.35562273557</v>
       </c>
     </row>
     <row r="6">
@@ -4643,16 +4643,16 @@
         <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>428.615504601943</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C7" t="n">
-        <v>428.615504601943</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D7" t="n">
-        <v>428.615504601943</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E7" t="n">
-        <v>280.7024110195499</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F7" t="n">
-        <v>133.8124635216396</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757129</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y7" t="n">
-        <v>610.2639694321828</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1601.546535481797</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1232.584018541385</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>488.5300673363905</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>77.54416254678289</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>3104.520121052924</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.344253709365</v>
+        <v>2751.75146578281</v>
       </c>
       <c r="X8" t="n">
-        <v>2366.344253709365</v>
+        <v>2378.28570752173</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1988.146375545919</v>
       </c>
     </row>
     <row r="9">
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>478.3278112441809</v>
+        <v>533.4780323548192</v>
       </c>
       <c r="C10" t="n">
-        <v>309.391628316274</v>
+        <v>364.5418494269123</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
         <v>66.51211643218343</v>
@@ -4992,22 +4992,22 @@
         <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>699.120390387711</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>478.3278112441809</v>
+        <v>715.126497185059</v>
       </c>
     </row>
     <row r="11">
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5071,19 +5071,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>662.1522880254209</v>
+        <v>718.5507239167111</v>
       </c>
       <c r="C13" t="n">
-        <v>493.2161050975141</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="D13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>343.0994656851783</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2401.759668664207</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>900.1991887469509</v>
       </c>
     </row>
     <row r="14">
@@ -5260,13 +5260,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
         <v>2516.421633107662</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>783.5579673960132</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>614.6217844681063</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557705</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5500,10 +5500,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2022.116874200839</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2445.740023695907</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5700,25 +5700,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2113.492509992416</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1824.417283336614</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1569.732795130727</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1280.315625093766</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,7 +5788,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.913939313768</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1964.511902868375</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>695.5020655703109</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C22" t="n">
-        <v>695.5020655703109</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D22" t="n">
-        <v>695.5020655703109</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="23">
@@ -5977,46 +5977,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>2876.560776129205</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M24" t="n">
-        <v>3473.939263755757</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>3473.939263755757</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>4025.848993995044</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>4449.472143490112</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4682.733803864994</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>782.8410298377091</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6174,25 +6174,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U25" t="n">
-        <v>1957.373282952344</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.688794746457</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1413.271624709496</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1185.282073811479</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.4894946679489</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6253,10 +6253,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466572</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2337.284991357604</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.683526380545</v>
       </c>
       <c r="U28" t="n">
-        <v>2104.263230450254</v>
+        <v>1828.608299724743</v>
       </c>
       <c r="V28" t="n">
-        <v>1849.578742244367</v>
+        <v>1573.923811518856</v>
       </c>
       <c r="W28" t="n">
-        <v>1560.161572207407</v>
+        <v>1284.506641481895</v>
       </c>
       <c r="X28" t="n">
-        <v>1332.172021309389</v>
+        <v>1056.517090583878</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1468.439756756785</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6694,55 +6694,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851783</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>250.6008040881813</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>108.8889729303794</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7174,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3044.370838283061</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>2875.434655355155</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>2725.318015942819</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>2725.318015942819</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>2578.428068444909</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>4507.978318053498</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>4218.903091397696</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>3964.218603191809</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>3674.801433154848</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>3446.811882256831</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>3226.019303113301</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2824.769373306003</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>2655.833190378096</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>2655.833190378096</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E43" t="n">
-        <v>2655.833190378096</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F43" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>3227.210417279773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>3006.417838136243</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
   </sheetData>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80.44045370237413</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>136.274905234752</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.60187266209422</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,10 +23664,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>61.40075786968299</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T19" t="n">
-        <v>134.6711151870884</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>211.9838267404996</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>199.9223080965399</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>45.37941682720987</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>138.8202214113361</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>164.3170701178263</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>78.25894333073138</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>66.34424953498211</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>148.75076424424</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>136.2749052347504</v>
+        <v>35.40333084624569</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>105.2672314396031</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312481</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312482</v>
-      </c>
-      <c r="C2" t="n">
-        <v>718411.5486312478</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312481</v>
       </c>
       <c r="E2" t="n">
         <v>706253.2747287555</v>
       </c>
       <c r="F2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="H2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="I2" t="n">
+        <v>706253.2747287552</v>
+      </c>
+      <c r="J2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>706253.2747287558</v>
+      </c>
+      <c r="L2" t="n">
         <v>706253.2747287554</v>
       </c>
-      <c r="H2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>706253.2747287557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>706253.2747287551</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287555</v>
-      </c>
       <c r="M2" t="n">
-        <v>706253.2747287557</v>
+        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
-        <v>706253.2747287555</v>
+        <v>706253.2747287556</v>
       </c>
       <c r="O2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="P2" t="n">
         <v>706253.2747287552</v>
-      </c>
-      <c r="P2" t="n">
-        <v>706253.2747287554</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>4.14093847211916e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405266</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26447,7 +26447,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-811863.8817617899</v>
+        <v>-811863.8817617903</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658015</v>
+        <v>516880.8639658021</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658022</v>
+        <v>516880.8639658024</v>
       </c>
       <c r="E6" t="n">
-        <v>264891.5870556257</v>
+        <v>264544.2078012688</v>
       </c>
       <c r="F6" t="n">
-        <v>590304.0488629813</v>
+        <v>589956.6696086243</v>
       </c>
       <c r="G6" t="n">
-        <v>590304.0488629809</v>
+        <v>589956.6696086242</v>
       </c>
       <c r="H6" t="n">
-        <v>590304.048862981</v>
+        <v>589956.6696086242</v>
       </c>
       <c r="I6" t="n">
-        <v>590304.0488629813</v>
+        <v>589956.6696086238</v>
       </c>
       <c r="J6" t="n">
-        <v>372772.8464657032</v>
+        <v>372425.4672113465</v>
       </c>
       <c r="K6" t="n">
-        <v>590304.048862981</v>
+        <v>589956.6696086244</v>
       </c>
       <c r="L6" t="n">
-        <v>590304.048862981</v>
+        <v>589956.669608624</v>
       </c>
       <c r="M6" t="n">
-        <v>505249.0209274693</v>
+        <v>504901.641673112</v>
       </c>
       <c r="N6" t="n">
-        <v>590304.048862981</v>
+        <v>589956.6696086242</v>
       </c>
       <c r="O6" t="n">
-        <v>590304.0488629808</v>
+        <v>589956.6696086242</v>
       </c>
       <c r="P6" t="n">
-        <v>590304.0488629809</v>
+        <v>589956.6696086238</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>103.9661575026743</v>
       </c>
       <c r="V2" t="n">
-        <v>81.59022088655925</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.557953848736361e-12</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>107.7439527351654</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>160.3027978282312</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>11.86547352390372</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>330.8650149868101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,19 +27776,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>99.39846464046664</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>94.15744254776803</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>108.8774149194503</v>
       </c>
       <c r="W8" t="n">
-        <v>40.43000689453589</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>53.58580427589393</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28064,7 +28064,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>14.88174980530002</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.038590482916834e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29805,7 +29805,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>468.9317632522997</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,10 +32092,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,7 +32323,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32335,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>248.3870916262918</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>409.0029787211721</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32706,7 +32706,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
@@ -32785,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32809,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>153.8606640989128</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,34 +33259,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,16 +33496,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,16 +33514,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33678,10 +33678,10 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,13 +33745,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33894,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34207,34 +34207,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,19 +35494,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>330.3773834724255</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,10 +35740,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35983,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>108.4053175402703</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>266.8689447991538</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36354,7 +36354,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36457,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>8.181160134948858</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,16 +37162,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37326,10 +37326,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,13 +37393,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3137544.170030324</v>
+        <v>3139304.700333109</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>300.4616965878238</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>147.0290144562276</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>12.40418031676368</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>58.28185552386362</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>267.3172025050105</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>239.1296984349983</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>221.7048515690723</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>131.5522128412691</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>203.7029035467948</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576153</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="12">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>125.8152577453148</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>44.7513807668926</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,16 +1773,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>64.91921363453586</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>35.03063761899501</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>42.5313457611372</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2143,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2241,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>5.421623586788709</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2371,7 +2371,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>206.7582264966181</v>
+        <v>198.7323644553051</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444142</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695447</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,7 +2727,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>42.20606459030849</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>14.92158678358342</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,7 +3951,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>43.3482415786093</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1464.366537431292</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1078.578284833048</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>667.5923800434402</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U2" t="n">
-        <v>3177.09166559278</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V2" t="n">
-        <v>3177.09166559278</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W2" t="n">
-        <v>2824.323010322666</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="3">
@@ -4400,16 +4400,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
@@ -4470,70 +4470,70 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E4" t="n">
         <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>908.3575307507468</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1133.303650087723</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>747.5153974894783</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>336.5294926998708</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218343</v>
@@ -4570,13 +4570,13 @@
         <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
@@ -4594,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2767.792255586147</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2436.729368242576</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W5" t="n">
-        <v>2083.960712972462</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X5" t="n">
-        <v>1710.494954711382</v>
+        <v>2268.308520734407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1320.35562273557</v>
+        <v>1878.169188758595</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>385.5649387724261</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D7" t="n">
         <v>66.51211643218343</v>
@@ -4761,16 +4761,16 @@
         <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X7" t="n">
-        <v>788.005982746196</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y7" t="n">
-        <v>567.2134036026658</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="8">
@@ -4822,7 +4822,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052369</v>
@@ -4938,13 +4938,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548192</v>
+        <v>518.4459618444151</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269123</v>
+        <v>349.5097789165083</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>199.3931395041725</v>
       </c>
       <c r="E10" t="n">
         <v>66.51211643218343</v>
@@ -5007,7 +5007,7 @@
         <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>715.126497185059</v>
+        <v>700.0944266746549</v>
       </c>
     </row>
     <row r="11">
@@ -5038,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5071,7 +5071,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466574</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>718.5507239167111</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C13" t="n">
-        <v>549.6145409888043</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2401.759668664207</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2182.158203687148</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1893.082977031346</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1638.398488825459</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1348.981318788498</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1120.991767890481</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>900.1991887469509</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684977</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2367.795837888943</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.8431516380886</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E16" t="n">
-        <v>422.7903292978459</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F16" t="n">
-        <v>422.7903292978459</v>
+        <v>408.6744289523863</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>241.4783296672662</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611858</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683283</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5515,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>842.6091804069456</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1470.207143961552</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2022.116874200839</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2445.740023695907</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>1272.757518498399</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>1051.964939354869</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5791,10 +5791,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,25 +5828,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.586158026164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,40 +5983,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
         <v>4405.252601474784</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356194</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1487.64609177864</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168602</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362691</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,43 +6235,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2337.284991357604</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T28" t="n">
-        <v>2117.683526380545</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1828.608299724743</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1573.923811518856</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1284.506641481895</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>1056.517090583878</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6600,22 +6600,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6688,7 +6688,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6891,19 +6891,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,16 +6925,16 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>417.7969033733013</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>417.7969033733013</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>250.6008040881813</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>108.8889729303794</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7140,7 +7140,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7365,16 +7365,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
         <v>753.3092412490405</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,19 +7487,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
         <v>2001.151557821488</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7842,16 +7842,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>136.274905234752</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,16 +23661,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>75.37549921168802</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>144.8013425629423</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>138.4949402405074</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>211.9838267404996</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>45.37941682720987</v>
+        <v>53.40527886852291</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>138.8202214113361</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>66.34424953498211</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>35.40333084624569</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>105.2672314396031</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>720281.9859240387</v>
+        <v>720281.9859240388</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>720281.9859240388</v>
+        <v>720281.9859240387</v>
       </c>
     </row>
     <row r="10">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>718411.5486312482</v>
+      </c>
+      <c r="C2" t="n">
+        <v>718411.5486312477</v>
+      </c>
+      <c r="D2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="C2" t="n">
-        <v>718411.5486312479</v>
-      </c>
-      <c r="D2" t="n">
-        <v>718411.5486312482</v>
-      </c>
       <c r="E2" t="n">
+        <v>706253.2747287556</v>
+      </c>
+      <c r="F2" t="n">
+        <v>706253.2747287551</v>
+      </c>
+      <c r="G2" t="n">
         <v>706253.2747287555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>706253.2747287557</v>
-      </c>
-      <c r="G2" t="n">
-        <v>706253.2747287556</v>
-      </c>
-      <c r="H2" t="n">
-        <v>706253.2747287556</v>
       </c>
       <c r="I2" t="n">
         <v>706253.2747287552</v>
       </c>
       <c r="J2" t="n">
+        <v>706253.2747287554</v>
+      </c>
+      <c r="K2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>706253.2747287557</v>
+      </c>
+      <c r="M2" t="n">
         <v>706253.2747287555</v>
-      </c>
-      <c r="K2" t="n">
-        <v>706253.2747287558</v>
-      </c>
-      <c r="L2" t="n">
-        <v>706253.2747287554</v>
-      </c>
-      <c r="M2" t="n">
-        <v>706253.2747287552</v>
       </c>
       <c r="N2" t="n">
         <v>706253.2747287556</v>
@@ -26355,7 +26355,7 @@
         <v>706253.2747287556</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287552</v>
+        <v>706253.2747287557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405252</v>
       </c>
       <c r="E4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="F4" t="n">
         <v>14826.69604186736</v>
@@ -26524,46 +26524,46 @@
         <v>-811863.8817617903</v>
       </c>
       <c r="C6" t="n">
-        <v>516880.8639658021</v>
+        <v>516880.8639658019</v>
       </c>
       <c r="D6" t="n">
-        <v>516880.8639658024</v>
+        <v>516880.8639658022</v>
       </c>
       <c r="E6" t="n">
-        <v>264544.2078012688</v>
+        <v>264856.8491301903</v>
       </c>
       <c r="F6" t="n">
-        <v>589956.6696086243</v>
+        <v>590269.310937545</v>
       </c>
       <c r="G6" t="n">
-        <v>589956.6696086242</v>
+        <v>590269.3109375454</v>
       </c>
       <c r="H6" t="n">
-        <v>589956.6696086242</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="I6" t="n">
-        <v>589956.6696086238</v>
+        <v>590269.3109375451</v>
       </c>
       <c r="J6" t="n">
-        <v>372425.4672113465</v>
+        <v>372738.1085402677</v>
       </c>
       <c r="K6" t="n">
-        <v>589956.6696086244</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="L6" t="n">
-        <v>589956.669608624</v>
+        <v>590269.3109375456</v>
       </c>
       <c r="M6" t="n">
-        <v>504901.641673112</v>
+        <v>505214.2830020335</v>
       </c>
       <c r="N6" t="n">
-        <v>589956.6696086242</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="O6" t="n">
-        <v>589956.6696086242</v>
+        <v>590269.3109375455</v>
       </c>
       <c r="P6" t="n">
-        <v>589956.6696086238</v>
+        <v>590269.3109375456</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>110.4600290656297</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>103.9661575026743</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>274.1188180198273</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>160.3027978282312</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>143.604523148443</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>11.86547352390372</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27833,13 +27833,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>30.43279175475573</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>94.15744254776803</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.88174980529999</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.88174980530002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.038590482916834e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -31615,7 +31615,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31624,7 +31624,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31995,7 +31995,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
         <v>466.7546155663283</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32335,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>248.3870916262918</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>650.2626573149953</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32794,19 +32794,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,7 +34222,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35263,7 +35263,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35272,7 +35272,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35643,7 +35643,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35983,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.4053175402703</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>508.128623392977</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,7 +37870,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
